--- a/Project/Data/Water/Cantons/AG/AG 2015.xlsx
+++ b/Project/Data/Water/Cantons/AG/AG 2015.xlsx
@@ -21,15 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>(m3/s)</t>
-  </si>
-  <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
   </si>
   <si>
     <t>Windisch</t>
@@ -572,463 +566,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>305400</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
+      <c r="D2" s="2">
+        <v>1830</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1976</v>
+      </c>
+      <c r="F2" s="3">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5.31</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5.07</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10.38</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>305400</v>
+        <v>405700</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1830</v>
+        <v>1861</v>
       </c>
       <c r="E3" s="2">
-        <v>1976</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="3">
-        <v>55</v>
+        <v>24.8</v>
       </c>
       <c r="G3" s="3">
-        <v>1.59</v>
+        <v>0.9</v>
       </c>
       <c r="H3" s="3">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="I3" s="3">
-        <v>5.31</v>
+        <v>3.3</v>
       </c>
       <c r="J3" s="3">
-        <v>5.07</v>
+        <v>3.4</v>
       </c>
       <c r="K3" s="3">
-        <v>10.38</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>405700</v>
+        <v>405800</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="E4" s="2">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="F4" s="3">
-        <v>24.8</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="3">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="I4" s="3">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="J4" s="3">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" s="3">
-        <v>6.7</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>208200</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1889</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2006</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>405800</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1864</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2010</v>
-      </c>
-      <c r="F5" s="3">
-        <v>33</v>
-      </c>
       <c r="G5" s="3">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="H5" s="3">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="3">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="J5" s="3">
-        <v>2.5</v>
+        <v>1.24</v>
       </c>
       <c r="K5" s="3">
-        <v>5.0999999999999996</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>208200</v>
+        <v>405500</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="E6" s="2">
         <v>2006</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="G6" s="3">
-        <v>0.42</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="I6" s="3">
-        <v>1.45</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="J6" s="3">
-        <v>1.24</v>
+        <v>22.2</v>
       </c>
       <c r="K6" s="3">
-        <v>2.69</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>405500</v>
+        <v>208400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="E7" s="2">
-        <v>2006</v>
+        <v>1964</v>
       </c>
       <c r="F7" s="3">
-        <v>140</v>
+        <v>394</v>
       </c>
       <c r="G7" s="3">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="H7" s="3">
-        <v>6.6</v>
+        <v>2.89</v>
       </c>
       <c r="I7" s="3">
-        <v>19.399999999999999</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="J7" s="3">
-        <v>22.2</v>
+        <v>11.02</v>
       </c>
       <c r="K7" s="3">
-        <v>41.6</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>208400</v>
+        <v>405600</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="E8" s="2">
-        <v>1964</v>
+        <v>1988</v>
       </c>
       <c r="F8" s="3">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="G8" s="3">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H8" s="3">
-        <v>2.89</v>
+        <v>2.6</v>
       </c>
       <c r="I8" s="3">
-        <v>8.6199999999999992</v>
+        <v>7.7</v>
       </c>
       <c r="J8" s="3">
-        <v>11.02</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K8" s="3">
-        <v>19.64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>405600</v>
+        <v>109400</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="E9" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F9" s="3">
-        <v>95</v>
+        <v>2010</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1500</v>
       </c>
       <c r="G9" s="3">
-        <v>3.3</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3">
-        <v>2.6</v>
+        <v>50</v>
       </c>
       <c r="I9" s="3">
-        <v>7.7</v>
+        <v>125</v>
       </c>
       <c r="J9" s="3">
-        <v>8.3000000000000007</v>
+        <v>175</v>
       </c>
       <c r="K9" s="3">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>109400</v>
+        <v>208900</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="E10" s="2">
-        <v>2010</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1500</v>
+        <v>1927</v>
+      </c>
+      <c r="F10" s="3">
+        <v>418</v>
       </c>
       <c r="G10" s="3">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="H10" s="3">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="I10" s="3">
-        <v>125</v>
+        <v>56.6</v>
       </c>
       <c r="J10" s="3">
-        <v>175</v>
+        <v>63.3</v>
       </c>
       <c r="K10" s="3">
-        <v>300</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>208900</v>
+        <v>405650</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>1902</v>
       </c>
       <c r="E11" s="2">
-        <v>1927</v>
+        <v>1986</v>
       </c>
       <c r="F11" s="3">
-        <v>418</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3">
-        <v>19.5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>19.5</v>
+        <v>0.9</v>
       </c>
       <c r="I11" s="3">
-        <v>56.6</v>
+        <v>3.6</v>
       </c>
       <c r="J11" s="3">
-        <v>63.3</v>
+        <v>3.6</v>
       </c>
       <c r="K11" s="3">
-        <v>119.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>405650</v>
+        <v>405400</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="E12" s="2">
-        <v>1986</v>
+        <v>2014</v>
       </c>
       <c r="F12" s="3">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H12" s="3">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="J12" s="3">
-        <v>3.6</v>
+        <v>14.7</v>
       </c>
       <c r="K12" s="3">
-        <v>7.2</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>405400</v>
+        <v>109500</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="E13" s="2">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="F13" s="3">
-        <v>117</v>
+        <v>750</v>
       </c>
       <c r="G13" s="3">
-        <v>5.2</v>
+        <v>29.75</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>26.35</v>
       </c>
       <c r="I13" s="3">
-        <v>13</v>
+        <v>70.55</v>
       </c>
       <c r="J13" s="3">
-        <v>14.7</v>
+        <v>99.45</v>
       </c>
       <c r="K13" s="3">
-        <v>27.7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>109500</v>
+        <v>109600</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
         <v>1912</v>
@@ -1039,753 +1048,750 @@
       <c r="F14" s="3">
         <v>750</v>
       </c>
-      <c r="G14" s="3">
-        <v>29.75</v>
-      </c>
-      <c r="H14" s="3">
-        <v>26.35</v>
-      </c>
-      <c r="I14" s="3">
-        <v>70.55</v>
-      </c>
-      <c r="J14" s="3">
-        <v>99.45</v>
-      </c>
-      <c r="K14" s="3">
-        <v>170</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>109600</v>
+        <v>109100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="E15" s="2">
-        <v>1994</v>
-      </c>
-      <c r="F15" s="3">
-        <v>750</v>
+        <v>1992</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1355</v>
+      </c>
+      <c r="G15" s="3">
+        <v>55</v>
+      </c>
+      <c r="H15" s="3">
+        <v>53</v>
+      </c>
+      <c r="I15" s="3">
+        <v>133.5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>181.5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>109100</v>
+        <v>208300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="E16" s="2">
-        <v>1992</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1355</v>
+        <v>2000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>380</v>
       </c>
       <c r="G16" s="3">
-        <v>55</v>
+        <v>3.59</v>
       </c>
       <c r="H16" s="3">
-        <v>53</v>
+        <v>3.43</v>
       </c>
       <c r="I16" s="3">
-        <v>133.5</v>
+        <v>9.39</v>
       </c>
       <c r="J16" s="3">
-        <v>181.5</v>
+        <v>11.82</v>
       </c>
       <c r="K16" s="3">
-        <v>315</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>208300</v>
+        <v>208500</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>1917</v>
+        <v>1929</v>
       </c>
       <c r="E17" s="2">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="F17" s="3">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="G17" s="3">
-        <v>3.59</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H17" s="3">
-        <v>3.43</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I17" s="3">
-        <v>9.39</v>
+        <v>24</v>
       </c>
       <c r="J17" s="3">
-        <v>11.82</v>
+        <v>30</v>
       </c>
       <c r="K17" s="3">
-        <v>21.21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>208500</v>
+        <v>109300</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="E18" s="2">
-        <v>2014</v>
-      </c>
-      <c r="F18" s="3">
-        <v>360</v>
+        <v>1984</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1460</v>
       </c>
       <c r="G18" s="3">
-        <v>9.1999999999999993</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3">
-        <v>8.8000000000000007</v>
+        <v>60</v>
       </c>
       <c r="I18" s="3">
-        <v>24</v>
+        <v>154.1</v>
       </c>
       <c r="J18" s="3">
-        <v>30</v>
+        <v>195.9</v>
       </c>
       <c r="K18" s="3">
-        <v>54</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>109300</v>
+        <v>405300</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="E19" s="2">
-        <v>1984</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1460</v>
+        <v>1964</v>
+      </c>
+      <c r="F19" s="3">
+        <v>133</v>
       </c>
       <c r="G19" s="3">
-        <v>60</v>
+        <v>20.46</v>
       </c>
       <c r="H19" s="3">
-        <v>60</v>
+        <v>19.37</v>
       </c>
       <c r="I19" s="3">
-        <v>154.1</v>
+        <v>47.86</v>
       </c>
       <c r="J19" s="3">
-        <v>195.9</v>
+        <v>58.91</v>
       </c>
       <c r="K19" s="3">
-        <v>350</v>
+        <v>106.77</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>405300</v>
+        <v>109000</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
         <v>1933</v>
       </c>
       <c r="E20" s="2">
-        <v>1964</v>
-      </c>
-      <c r="F20" s="3">
-        <v>133</v>
+        <v>1992</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1100</v>
       </c>
       <c r="G20" s="3">
-        <v>20.46</v>
+        <v>45.85</v>
       </c>
       <c r="H20" s="3">
-        <v>19.37</v>
+        <v>45.36</v>
       </c>
       <c r="I20" s="3">
-        <v>47.86</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="J20" s="3">
-        <v>58.91</v>
+        <v>156.82</v>
       </c>
       <c r="K20" s="3">
-        <v>106.77</v>
+        <v>285.12</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>109000</v>
+        <v>209000</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>1933</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1992</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1100</v>
+        <v>1935</v>
+      </c>
+      <c r="F21" s="3">
+        <v>810</v>
       </c>
       <c r="G21" s="3">
-        <v>45.85</v>
+        <v>42.6</v>
       </c>
       <c r="H21" s="3">
-        <v>45.36</v>
+        <v>37.5</v>
       </c>
       <c r="I21" s="3">
-        <v>128.30000000000001</v>
+        <v>98</v>
       </c>
       <c r="J21" s="3">
-        <v>156.82</v>
+        <v>132</v>
       </c>
       <c r="K21" s="3">
-        <v>285.12</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>209000</v>
+        <v>108800</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>1935</v>
+        <v>1941</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2004</v>
       </c>
       <c r="F22" s="3">
-        <v>810</v>
+        <v>560</v>
       </c>
       <c r="G22" s="3">
-        <v>42.6</v>
+        <v>12.96</v>
       </c>
       <c r="H22" s="3">
-        <v>37.5</v>
+        <v>12.63</v>
       </c>
       <c r="I22" s="3">
-        <v>98</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="J22" s="3">
-        <v>132</v>
+        <v>46.25</v>
       </c>
       <c r="K22" s="3">
-        <v>230</v>
+        <v>86.26</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>108800</v>
+        <v>208700</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>1941</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2004</v>
+        <v>1943</v>
       </c>
       <c r="F23" s="3">
-        <v>560</v>
+        <v>4.5</v>
       </c>
       <c r="G23" s="3">
-        <v>12.96</v>
+        <v>0.4</v>
       </c>
       <c r="H23" s="3">
-        <v>12.63</v>
+        <v>0.4</v>
       </c>
       <c r="I23" s="3">
-        <v>40.020000000000003</v>
+        <v>0.8</v>
       </c>
       <c r="J23" s="3">
-        <v>46.25</v>
+        <v>0.7</v>
       </c>
       <c r="K23" s="3">
-        <v>86.26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>208700</v>
+        <v>208600</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>1943</v>
+        <v>1945</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1993</v>
       </c>
       <c r="F24" s="3">
-        <v>4.5</v>
+        <v>492</v>
       </c>
       <c r="G24" s="3">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="H24" s="3">
-        <v>0.4</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="I24" s="3">
-        <v>0.8</v>
+        <v>98.1</v>
       </c>
       <c r="J24" s="3">
-        <v>0.7</v>
+        <v>122.5</v>
       </c>
       <c r="K24" s="3">
-        <v>1.5</v>
+        <v>220.6</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>208600</v>
+        <v>208650</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
         <v>1945</v>
       </c>
       <c r="E25" s="2">
-        <v>1993</v>
+        <v>2010</v>
       </c>
       <c r="F25" s="3">
-        <v>492</v>
+        <v>25</v>
       </c>
       <c r="G25" s="3">
-        <v>40</v>
+        <v>1.74</v>
       </c>
       <c r="H25" s="3">
-        <v>39.299999999999997</v>
+        <v>1.67</v>
       </c>
       <c r="I25" s="3">
-        <v>98.1</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3">
-        <v>122.5</v>
+        <v>6</v>
       </c>
       <c r="K25" s="3">
-        <v>220.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>208650</v>
+        <v>208750</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>1945</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2010</v>
+        <v>1953</v>
       </c>
       <c r="F26" s="3">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="G26" s="3">
-        <v>1.74</v>
+        <v>0.65</v>
       </c>
       <c r="H26" s="3">
-        <v>1.67</v>
+        <v>0.6</v>
       </c>
       <c r="I26" s="3">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="J26" s="3">
-        <v>6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K26" s="3">
-        <v>10</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>208750</v>
+        <v>208800</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
         <v>1953</v>
       </c>
+      <c r="E27" s="2">
+        <v>1997</v>
+      </c>
       <c r="F27" s="3">
-        <v>11.5</v>
+        <v>410</v>
       </c>
       <c r="G27" s="3">
-        <v>0.65</v>
+        <v>51.25</v>
       </c>
       <c r="H27" s="3">
-        <v>0.6</v>
+        <v>49.7</v>
       </c>
       <c r="I27" s="3">
-        <v>1.2</v>
+        <v>135.1</v>
       </c>
       <c r="J27" s="3">
-        <v>2.2999999999999998</v>
+        <v>154.4</v>
       </c>
       <c r="K27" s="3">
-        <v>3.5</v>
+        <v>289.5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>208800</v>
+        <v>109200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>1953</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1997</v>
-      </c>
-      <c r="F28" s="3">
-        <v>410</v>
+        <v>1966</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1450</v>
       </c>
       <c r="G28" s="3">
-        <v>51.25</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="H28" s="3">
-        <v>49.7</v>
+        <v>36</v>
       </c>
       <c r="I28" s="3">
-        <v>135.1</v>
+        <v>106</v>
       </c>
       <c r="J28" s="3">
-        <v>154.4</v>
+        <v>134</v>
       </c>
       <c r="K28" s="3">
-        <v>289.5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>109200</v>
+        <v>305300</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>1966</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1450</v>
+        <v>1975</v>
+      </c>
+      <c r="F29" s="3">
+        <v>200</v>
       </c>
       <c r="G29" s="3">
-        <v>36.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="H29" s="3">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="I29" s="3">
+        <v>37</v>
+      </c>
+      <c r="J29" s="3">
+        <v>69</v>
+      </c>
+      <c r="K29" s="3">
         <v>106</v>
-      </c>
-      <c r="J29" s="3">
-        <v>134</v>
-      </c>
-      <c r="K29" s="3">
-        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>305300</v>
+        <v>305350</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F30" s="3">
         <v>30</v>
       </c>
-      <c r="D30" s="2">
-        <v>1975</v>
-      </c>
-      <c r="F30" s="3">
-        <v>200</v>
-      </c>
       <c r="G30" s="3">
-        <v>20</v>
+        <v>0.54</v>
       </c>
       <c r="H30" s="3">
-        <v>19.5</v>
+        <v>0.54</v>
       </c>
       <c r="I30" s="3">
-        <v>37</v>
+        <v>2.11</v>
       </c>
       <c r="J30" s="3">
-        <v>69</v>
+        <v>1.4</v>
       </c>
       <c r="K30" s="3">
-        <v>106</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>305350</v>
+        <v>208100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F31" s="3">
-        <v>30</v>
+        <v>475</v>
       </c>
       <c r="G31" s="3">
-        <v>0.54</v>
+        <v>11.5</v>
       </c>
       <c r="H31" s="3">
-        <v>0.54</v>
+        <v>10.75</v>
       </c>
       <c r="I31" s="3">
-        <v>2.11</v>
+        <v>25.3</v>
       </c>
       <c r="J31" s="3">
-        <v>1.4</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="K31" s="3">
-        <v>3.51</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>208100</v>
+        <v>208850</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F32" s="3">
-        <v>475</v>
+        <v>140</v>
       </c>
       <c r="G32" s="3">
-        <v>11.5</v>
+        <v>6.2</v>
       </c>
       <c r="H32" s="3">
-        <v>10.75</v>
+        <v>6</v>
       </c>
       <c r="I32" s="3">
-        <v>25.3</v>
+        <v>15</v>
       </c>
       <c r="J32" s="3">
-        <v>32.200000000000003</v>
+        <v>20.5</v>
       </c>
       <c r="K32" s="3">
-        <v>57.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>208850</v>
+        <v>405250</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="F33" s="3">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3">
-        <v>6.2</v>
+        <v>1.69</v>
       </c>
       <c r="H33" s="3">
-        <v>6</v>
+        <v>1.53</v>
       </c>
       <c r="I33" s="3">
-        <v>15</v>
+        <v>4.04</v>
       </c>
       <c r="J33" s="3">
-        <v>20.5</v>
+        <v>7.02</v>
       </c>
       <c r="K33" s="3">
-        <v>35.5</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>405250</v>
+        <v>108950</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F34" s="3">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="G34" s="3">
-        <v>1.69</v>
+        <v>15.34</v>
       </c>
       <c r="H34" s="3">
-        <v>1.53</v>
+        <v>15.34</v>
       </c>
       <c r="I34" s="3">
-        <v>4.04</v>
+        <v>29.7</v>
       </c>
       <c r="J34" s="3">
-        <v>7.02</v>
+        <v>36.18</v>
       </c>
       <c r="K34" s="3">
-        <v>11.06</v>
+        <v>65.88</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>108950</v>
+        <v>109450</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F35" s="3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G35" s="3">
-        <v>15.34</v>
+        <v>0.9</v>
       </c>
       <c r="H35" s="3">
-        <v>15.34</v>
+        <v>0.9</v>
       </c>
       <c r="I35" s="3">
-        <v>29.7</v>
+        <v>3.5</v>
       </c>
       <c r="J35" s="3">
-        <v>36.18</v>
+        <v>3.5</v>
       </c>
       <c r="K35" s="3">
-        <v>65.88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>109450</v>
+        <v>405550</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F36" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G36" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="I36" s="3">
         <v>0.9</v>
       </c>
-      <c r="H36" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="I36" s="3">
-        <v>3.5</v>
-      </c>
       <c r="J36" s="3">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="K36" s="3">
-        <v>7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>405550</v>
+        <v>405350</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
         <v>2013</v>
@@ -1794,114 +1800,82 @@
         <v>14</v>
       </c>
       <c r="G37" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H37" s="3">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="3">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="J37" s="3">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="K37" s="3">
-        <v>1.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>405350</v>
+        <v>208560</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F38" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G38" s="3">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H38" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I38" s="3">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="J38" s="3">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="K38" s="3">
-        <v>3</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>208560</v>
+        <v>109310</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2">
         <v>2014</v>
       </c>
       <c r="F39" s="3">
-        <v>40</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G39" s="3">
-        <v>1.2</v>
+        <v>0.18</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="I39" s="3">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="J39" s="3">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="K39" s="3">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>109310</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2014</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="K40" s="3">
         <v>1</v>
       </c>
     </row>
